--- a/kintime-webapp/STATIC/wendang/666 - 副本.xlsx
+++ b/kintime-webapp/STATIC/wendang/666 - 副本.xlsx
@@ -1713,10 +1713,6 @@
     <t>店铺类</t>
   </si>
   <si>
-    <t>1新订单 9商家接单 10骑手接单 2进行中(骑手赶往商家)11进行中(骑手配送中)3进行中(骑手已经到达) 4已完成 5已取消 6申请退款/售后 7同意退款 8不同意退款</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                                   </t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -1726,23 +1722,6 @@
   </si>
   <si>
     <t>用户账号表 users</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1未使用 2已验证 3退款/售后 4同意退款 5不同意退款 6已过期</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 7待付款</t>
-    </r>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
@@ -1797,6 +1776,37 @@
   </si>
   <si>
     <t>0未选择 10是10人以上 11不要餐具</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1新订单 9商家接单 10骑手接单 2进行中(骑手赶往商家)11进行中(骑手配送中)3进行中(骑手已经到达) 4已完成(未评价) 5已取消 6申请退款/售后 7同意退款 8不同意退款</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12已评价</t>
+    </r>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1未使用 2已验证(未评价) 3退款/售后 4同意退款 5不同意退款 6已过期 7待付款 8已评价</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -2183,7 +2193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="177">
+  <cellXfs count="178">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2363,6 +2373,52 @@
     <xf numFmtId="0" fontId="10" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2372,70 +2428,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2471,64 +2479,67 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3602,8 +3613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF248"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F103" workbookViewId="0">
-      <selection activeCell="G125" sqref="G125"/>
+    <sheetView tabSelected="1" topLeftCell="O142" workbookViewId="0">
+      <selection activeCell="S180" sqref="S180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3622,12 +3633,12 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="124" t="s">
+      <c r="B1" s="122" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
     </row>
     <row r="2" spans="1:17">
       <c r="A2" s="1" t="s">
@@ -3648,12 +3659,12 @@
       <c r="M2" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="N2" s="174" t="s">
+      <c r="N2" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="O2" s="174"/>
-      <c r="P2" s="174"/>
-      <c r="Q2" s="174"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="1:17">
       <c r="A3" s="1">
@@ -3889,19 +3900,19 @@
       <c r="Q10" s="30"/>
     </row>
     <row r="11" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B11" s="175"/>
-      <c r="C11" s="175"/>
-      <c r="D11" s="175"/>
-      <c r="E11" s="175"/>
-      <c r="F11" s="175"/>
-      <c r="G11" s="175"/>
-      <c r="H11" s="175"/>
-      <c r="I11" s="175"/>
-      <c r="J11" s="175"/>
-      <c r="K11" s="175"/>
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="124"/>
       <c r="M11" s="30"/>
       <c r="N11" s="30"/>
       <c r="O11" s="31" t="s">
@@ -3987,19 +3998,19 @@
       <c r="K15" s="3"/>
     </row>
     <row r="16" spans="1:17" ht="13.5" customHeight="1">
-      <c r="A16" s="175" t="s">
+      <c r="A16" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="175"/>
-      <c r="C16" s="175"/>
-      <c r="D16" s="175"/>
-      <c r="E16" s="175"/>
-      <c r="F16" s="175"/>
-      <c r="G16" s="175"/>
-      <c r="H16" s="175"/>
-      <c r="I16" s="175"/>
-      <c r="J16" s="175"/>
-      <c r="K16" s="175"/>
+      <c r="B16" s="124"/>
+      <c r="C16" s="124"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="124"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="124"/>
+      <c r="J16" s="124"/>
+      <c r="K16" s="124"/>
     </row>
     <row r="17" spans="1:20" ht="54">
       <c r="A17" s="3" t="s">
@@ -4057,19 +4068,19 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" spans="1:20" ht="13.5" customHeight="1">
-      <c r="A20" s="175" t="s">
+      <c r="A20" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="175"/>
-      <c r="C20" s="175"/>
-      <c r="D20" s="175"/>
-      <c r="E20" s="175"/>
-      <c r="F20" s="175"/>
-      <c r="G20" s="175"/>
-      <c r="H20" s="175"/>
-      <c r="I20" s="175"/>
-      <c r="J20" s="175"/>
-      <c r="K20" s="175"/>
+      <c r="B20" s="124"/>
+      <c r="C20" s="124"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="124"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="124"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="124"/>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" s="3" t="s">
@@ -4126,31 +4137,31 @@
       <c r="A25" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B25" s="172" t="s">
+      <c r="B25" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="C25" s="172"/>
-      <c r="D25" s="172"/>
-      <c r="E25" s="172"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
       <c r="F25" s="4"/>
       <c r="H25" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I25" s="124" t="s">
+      <c r="I25" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="J25" s="124"/>
-      <c r="K25" s="124"/>
-      <c r="L25" s="124"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="122"/>
       <c r="P25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q25" s="168" t="s">
+      <c r="Q25" s="126" t="s">
         <v>61</v>
       </c>
-      <c r="R25" s="168"/>
-      <c r="S25" s="168"/>
-      <c r="T25" s="168"/>
+      <c r="R25" s="126"/>
+      <c r="S25" s="126"/>
+      <c r="T25" s="126"/>
     </row>
     <row r="26" spans="1:20">
       <c r="A26" s="4" t="s">
@@ -4410,12 +4421,12 @@
       <c r="P32" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="Q32" s="168" t="s">
+      <c r="Q32" s="126" t="s">
         <v>74</v>
       </c>
-      <c r="R32" s="168"/>
-      <c r="S32" s="168"/>
-      <c r="T32" s="168"/>
+      <c r="R32" s="126"/>
+      <c r="S32" s="126"/>
+      <c r="T32" s="126"/>
     </row>
     <row r="33" spans="1:20">
       <c r="A33" s="4">
@@ -4499,12 +4510,12 @@
       <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="H35" s="9"/>
-      <c r="I35" s="171" t="s">
+      <c r="I35" s="127" t="s">
         <v>81</v>
       </c>
-      <c r="J35" s="173"/>
-      <c r="K35" s="173"/>
-      <c r="L35" s="173"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="128"/>
+      <c r="L35" s="128"/>
       <c r="M35" s="10"/>
       <c r="N35" s="10"/>
       <c r="O35" s="10"/>
@@ -4667,12 +4678,12 @@
       <c r="P39" s="38" t="s">
         <v>60</v>
       </c>
-      <c r="Q39" s="167" t="s">
+      <c r="Q39" s="129" t="s">
         <v>96</v>
       </c>
-      <c r="R39" s="167"/>
-      <c r="S39" s="167"/>
-      <c r="T39" s="167"/>
+      <c r="R39" s="129"/>
+      <c r="S39" s="129"/>
+      <c r="T39" s="129"/>
     </row>
     <row r="40" spans="1:20">
       <c r="A40" s="4"/>
@@ -4944,12 +4955,12 @@
       <c r="P46" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Q46" s="168" t="s">
+      <c r="Q46" s="126" t="s">
         <v>115</v>
       </c>
-      <c r="R46" s="168"/>
-      <c r="S46" s="168"/>
-      <c r="T46" s="168"/>
+      <c r="R46" s="126"/>
+      <c r="S46" s="126"/>
+      <c r="T46" s="126"/>
     </row>
     <row r="47" spans="1:20">
       <c r="A47" s="4"/>
@@ -5173,12 +5184,12 @@
       <c r="A53" s="17" t="s">
         <v>60</v>
       </c>
-      <c r="B53" s="169" t="s">
+      <c r="B53" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="C53" s="170"/>
-      <c r="D53" s="170"/>
-      <c r="E53" s="170"/>
+      <c r="C53" s="131"/>
+      <c r="D53" s="131"/>
+      <c r="E53" s="131"/>
       <c r="F53" s="17"/>
       <c r="H53" s="10">
         <v>17</v>
@@ -5197,12 +5208,12 @@
       <c r="P53" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="Q53" s="168" t="s">
+      <c r="Q53" s="126" t="s">
         <v>139</v>
       </c>
-      <c r="R53" s="168"/>
-      <c r="S53" s="168"/>
-      <c r="T53" s="168"/>
+      <c r="R53" s="126"/>
+      <c r="S53" s="126"/>
+      <c r="T53" s="126"/>
     </row>
     <row r="54" spans="1:22">
       <c r="A54" s="18" t="s">
@@ -5417,14 +5428,14 @@
       <c r="I58" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="J58" s="171" t="s">
+      <c r="J58" s="127" t="s">
         <v>143</v>
       </c>
-      <c r="K58" s="171"/>
-      <c r="L58" s="171"/>
-      <c r="M58" s="171"/>
-      <c r="N58" s="171"/>
-      <c r="O58" s="171"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="127"/>
+      <c r="N58" s="127"/>
+      <c r="O58" s="127"/>
     </row>
     <row r="59" spans="1:22">
       <c r="A59" s="23">
@@ -5561,33 +5572,33 @@
         <v>153</v>
       </c>
       <c r="D63" s="26"/>
-      <c r="E63" s="164" t="s">
+      <c r="E63" s="132" t="s">
         <v>154</v>
       </c>
-      <c r="F63" s="164"/>
+      <c r="F63" s="132"/>
       <c r="G63" s="28" t="s">
         <v>155</v>
       </c>
       <c r="H63" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="I63" s="165" t="s">
+      <c r="I63" s="133" t="s">
         <v>156</v>
       </c>
-      <c r="J63" s="165"/>
-      <c r="K63" s="165"/>
-      <c r="L63" s="165"/>
+      <c r="J63" s="133"/>
+      <c r="K63" s="133"/>
+      <c r="L63" s="133"/>
       <c r="M63" s="29"/>
       <c r="N63" s="29"/>
       <c r="P63" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="Q63" s="166" t="s">
+      <c r="Q63" s="134" t="s">
         <v>157</v>
       </c>
-      <c r="R63" s="166"/>
-      <c r="S63" s="166"/>
-      <c r="T63" s="166"/>
+      <c r="R63" s="134"/>
+      <c r="S63" s="134"/>
+      <c r="T63" s="134"/>
       <c r="U63" s="45"/>
       <c r="V63" s="45"/>
     </row>
@@ -5782,12 +5793,12 @@
       <c r="X69" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="Y69" s="162" t="s">
+      <c r="Y69" s="135" t="s">
         <v>162</v>
       </c>
-      <c r="Z69" s="133"/>
-      <c r="AA69" s="133"/>
-      <c r="AB69" s="133"/>
+      <c r="Z69" s="136"/>
+      <c r="AA69" s="136"/>
+      <c r="AB69" s="136"/>
       <c r="AC69" s="54"/>
     </row>
     <row r="70" spans="1:29">
@@ -5866,12 +5877,12 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="121" t="s">
-        <v>460</v>
-      </c>
-      <c r="C74" s="122"/>
-      <c r="D74" s="122"/>
-      <c r="E74" s="123"/>
+      <c r="B74" s="137" t="s">
+        <v>459</v>
+      </c>
+      <c r="C74" s="138"/>
+      <c r="D74" s="138"/>
+      <c r="E74" s="139"/>
       <c r="X74" s="54">
         <v>4</v>
       </c>
@@ -5909,12 +5920,12 @@
       <c r="J75" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="K75" s="124" t="s">
+      <c r="K75" s="122" t="s">
         <v>170</v>
       </c>
-      <c r="L75" s="124"/>
-      <c r="M75" s="124"/>
-      <c r="N75" s="124"/>
+      <c r="L75" s="122"/>
+      <c r="M75" s="122"/>
+      <c r="N75" s="122"/>
       <c r="X75" s="54">
         <v>5</v>
       </c>
@@ -6067,12 +6078,12 @@
       <c r="Q78" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="R78" s="157" t="s">
+      <c r="R78" s="140" t="s">
         <v>180</v>
       </c>
-      <c r="S78" s="157"/>
-      <c r="T78" s="157"/>
-      <c r="U78" s="157"/>
+      <c r="S78" s="140"/>
+      <c r="T78" s="140"/>
+      <c r="U78" s="140"/>
       <c r="V78" s="79"/>
       <c r="W78" s="79"/>
       <c r="X78" s="54">
@@ -6329,12 +6340,12 @@
       <c r="I83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="J83" s="158" t="s">
+      <c r="J83" s="141" t="s">
         <v>200</v>
       </c>
-      <c r="K83" s="124"/>
-      <c r="L83" s="124"/>
-      <c r="M83" s="124"/>
+      <c r="K83" s="122"/>
+      <c r="L83" s="122"/>
+      <c r="M83" s="122"/>
       <c r="Q83" s="80">
         <v>4</v>
       </c>
@@ -6347,11 +6358,11 @@
       <c r="T83" s="80" t="s">
         <v>10</v>
       </c>
-      <c r="U83" s="159" t="s">
+      <c r="U83" s="142" t="s">
         <v>202</v>
       </c>
-      <c r="V83" s="160"/>
-      <c r="W83" s="161"/>
+      <c r="V83" s="143"/>
+      <c r="W83" s="144"/>
       <c r="X83" s="54"/>
       <c r="Y83" s="43" t="s">
         <v>203</v>
@@ -6523,18 +6534,18 @@
       <c r="A89" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B89" s="162" t="s">
+      <c r="B89" s="135" t="s">
         <v>220</v>
       </c>
-      <c r="C89" s="133"/>
-      <c r="D89" s="133"/>
-      <c r="E89" s="133"/>
+      <c r="C89" s="136"/>
+      <c r="D89" s="136"/>
+      <c r="E89" s="136"/>
       <c r="F89" s="54"/>
       <c r="I89" s="6"/>
-      <c r="J89" s="163"/>
-      <c r="K89" s="163"/>
-      <c r="L89" s="163"/>
-      <c r="M89" s="163"/>
+      <c r="J89" s="145"/>
+      <c r="K89" s="145"/>
+      <c r="L89" s="145"/>
+      <c r="M89" s="145"/>
       <c r="X89" s="54"/>
       <c r="Y89" s="59" t="s">
         <v>221</v>
@@ -7758,7 +7769,7 @@
         <v>0</v>
       </c>
       <c r="V114" s="62" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="W114" s="62"/>
       <c r="X114" s="62"/>
@@ -7768,7 +7779,7 @@
         <v>0</v>
       </c>
       <c r="AC114" s="120" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="AD114" s="62"/>
       <c r="AE114" s="62"/>
@@ -8142,10 +8153,10 @@
       </c>
       <c r="H121" s="62"/>
       <c r="I121" s="62" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="J121" s="62" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="K121" s="62"/>
       <c r="L121" s="62"/>
@@ -8195,13 +8206,13 @@
       </c>
       <c r="H122" s="62"/>
       <c r="I122" s="62" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="J122" s="62" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="K122" s="62" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="L122" s="62"/>
       <c r="M122" s="62"/>
@@ -8303,16 +8314,16 @@
       <c r="S124" s="75"/>
     </row>
     <row r="125" spans="1:32">
-      <c r="H125" s="176" t="s">
+      <c r="H125" s="121" t="s">
         <v>0</v>
       </c>
-      <c r="I125" s="176" t="s">
+      <c r="I125" s="121" t="s">
         <v>290</v>
       </c>
-      <c r="J125" s="176"/>
-      <c r="K125" s="176"/>
-      <c r="L125" s="176"/>
-      <c r="M125" s="176"/>
+      <c r="J125" s="121"/>
+      <c r="K125" s="121"/>
+      <c r="L125" s="121"/>
+      <c r="M125" s="121"/>
       <c r="N125" s="74">
         <v>5</v>
       </c>
@@ -8331,22 +8342,22 @@
       <c r="S125" s="75"/>
     </row>
     <row r="126" spans="1:32">
-      <c r="H126" s="176" t="s">
+      <c r="H126" s="121" t="s">
         <v>2</v>
       </c>
-      <c r="I126" s="176" t="s">
+      <c r="I126" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="J126" s="176" t="s">
+      <c r="J126" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="K126" s="176" t="s">
+      <c r="K126" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="L126" s="176" t="s">
+      <c r="L126" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="M126" s="176"/>
+      <c r="M126" s="121"/>
       <c r="N126" s="75">
         <v>6</v>
       </c>
@@ -8363,22 +8374,22 @@
       <c r="S126" s="75"/>
     </row>
     <row r="127" spans="1:32">
-      <c r="H127" s="176">
+      <c r="H127" s="121">
         <v>1</v>
       </c>
-      <c r="I127" s="176" t="s">
+      <c r="I127" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="J127" s="176" t="s">
+      <c r="J127" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="K127" s="176" t="s">
-        <v>10</v>
-      </c>
-      <c r="L127" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="M127" s="176"/>
+      <c r="K127" s="121" t="s">
+        <v>10</v>
+      </c>
+      <c r="L127" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="M127" s="121"/>
       <c r="N127" s="75">
         <v>7</v>
       </c>
@@ -8397,22 +8408,22 @@
       <c r="S127" s="75"/>
     </row>
     <row r="128" spans="1:32">
-      <c r="H128" s="176">
+      <c r="H128" s="121">
         <v>2</v>
       </c>
-      <c r="I128" s="176" t="s">
+      <c r="I128" s="121" t="s">
         <v>82</v>
       </c>
-      <c r="J128" s="176" t="s">
+      <c r="J128" s="121" t="s">
         <v>276</v>
       </c>
-      <c r="K128" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="L128" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="M128" s="176"/>
+      <c r="K128" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L128" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="M128" s="121"/>
       <c r="N128" s="75">
         <v>8</v>
       </c>
@@ -8429,20 +8440,20 @@
       <c r="S128" s="75"/>
     </row>
     <row r="129" spans="1:30">
-      <c r="H129" s="176">
+      <c r="H129" s="121">
         <v>3</v>
       </c>
-      <c r="I129" s="176" t="s">
+      <c r="I129" s="121" t="s">
         <v>280</v>
       </c>
-      <c r="J129" s="176" t="s">
+      <c r="J129" s="121" t="s">
         <v>209</v>
       </c>
-      <c r="K129" s="176"/>
-      <c r="L129" s="176" t="s">
+      <c r="K129" s="121"/>
+      <c r="L129" s="121" t="s">
         <v>281</v>
       </c>
-      <c r="M129" s="176"/>
+      <c r="M129" s="121"/>
       <c r="N129" s="75">
         <v>9</v>
       </c>
@@ -8470,22 +8481,22 @@
       <c r="AD129" s="101"/>
     </row>
     <row r="130" spans="1:30">
-      <c r="H130" s="176">
+      <c r="H130" s="121">
         <v>4</v>
       </c>
-      <c r="I130" s="176" t="s">
+      <c r="I130" s="121" t="s">
         <v>267</v>
       </c>
-      <c r="J130" s="176" t="s">
+      <c r="J130" s="121" t="s">
         <v>284</v>
       </c>
-      <c r="K130" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="L130" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="M130" s="176"/>
+      <c r="K130" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="M130" s="121"/>
       <c r="N130" s="75">
         <v>10</v>
       </c>
@@ -8519,22 +8530,22 @@
       </c>
     </row>
     <row r="131" spans="1:30">
-      <c r="H131" s="176">
+      <c r="H131" s="121">
         <v>5</v>
       </c>
-      <c r="I131" s="176" t="s">
+      <c r="I131" s="121" t="s">
         <v>287</v>
       </c>
-      <c r="J131" s="176" t="s">
+      <c r="J131" s="121" t="s">
         <v>288</v>
       </c>
-      <c r="K131" s="176" t="s">
-        <v>14</v>
-      </c>
-      <c r="L131" s="176" t="s">
-        <v>11</v>
-      </c>
-      <c r="M131" s="176"/>
+      <c r="K131" s="121" t="s">
+        <v>14</v>
+      </c>
+      <c r="L131" s="121" t="s">
+        <v>11</v>
+      </c>
+      <c r="M131" s="121"/>
       <c r="P131" s="13"/>
       <c r="Q131" s="13"/>
       <c r="Z131" s="101">
@@ -8596,12 +8607,12 @@
       <c r="I133" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="J133" s="145" t="s">
+      <c r="J133" s="162" t="s">
         <v>300</v>
       </c>
-      <c r="K133" s="145"/>
-      <c r="L133" s="145"/>
-      <c r="M133" s="145"/>
+      <c r="K133" s="162"/>
+      <c r="L133" s="162"/>
+      <c r="M133" s="162"/>
       <c r="N133" s="62"/>
       <c r="O133" s="95" t="s">
         <v>2</v>
@@ -8914,12 +8925,12 @@
       <c r="O138" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="P138" s="137" t="s">
+      <c r="P138" s="159" t="s">
         <v>310</v>
       </c>
-      <c r="Q138" s="138"/>
-      <c r="R138" s="138"/>
-      <c r="S138" s="138"/>
+      <c r="Q138" s="160"/>
+      <c r="R138" s="160"/>
+      <c r="S138" s="160"/>
       <c r="T138" s="86"/>
       <c r="U138" s="86"/>
       <c r="V138" s="86"/>
@@ -8973,12 +8984,12 @@
       <c r="A140" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B140" s="121" t="s">
+      <c r="B140" s="137" t="s">
         <v>313</v>
       </c>
-      <c r="C140" s="122"/>
-      <c r="D140" s="122"/>
-      <c r="E140" s="123"/>
+      <c r="C140" s="138"/>
+      <c r="D140" s="138"/>
+      <c r="E140" s="139"/>
       <c r="F140" s="36"/>
       <c r="I140" s="62">
         <v>6</v>
@@ -9257,8 +9268,8 @@
         <v>167</v>
       </c>
       <c r="S145" s="86"/>
-      <c r="T145" s="86" t="s">
-        <v>457</v>
+      <c r="T145" s="177" t="s">
+        <v>468</v>
       </c>
       <c r="U145" s="86"/>
       <c r="V145" s="86"/>
@@ -9399,18 +9410,18 @@
       <c r="I149" s="99" t="s">
         <v>0</v>
       </c>
-      <c r="J149" s="142" t="s">
+      <c r="J149" s="157" t="s">
         <v>346</v>
       </c>
-      <c r="K149" s="143"/>
-      <c r="L149" s="143"/>
-      <c r="M149" s="143"/>
+      <c r="K149" s="158"/>
+      <c r="L149" s="158"/>
+      <c r="M149" s="158"/>
       <c r="O149" s="86"/>
       <c r="P149" s="86" t="s">
         <v>347</v>
       </c>
       <c r="Q149" s="86" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="R149" s="86"/>
       <c r="S149" s="86"/>
@@ -9750,20 +9761,20 @@
       <c r="A158" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B158" s="137" t="s">
+      <c r="B158" s="159" t="s">
         <v>376</v>
       </c>
-      <c r="C158" s="138"/>
-      <c r="D158" s="138"/>
-      <c r="E158" s="138"/>
+      <c r="C158" s="160"/>
+      <c r="D158" s="160"/>
+      <c r="E158" s="160"/>
       <c r="F158" s="86"/>
       <c r="G158" s="87"/>
-      <c r="H158" s="144" t="s">
+      <c r="H158" s="161" t="s">
         <v>377</v>
       </c>
-      <c r="I158" s="144"/>
-      <c r="J158" s="144"/>
-      <c r="K158" s="144"/>
+      <c r="I158" s="161"/>
+      <c r="J158" s="161"/>
+      <c r="K158" s="161"/>
       <c r="L158" s="87"/>
       <c r="M158" s="84"/>
       <c r="O158" s="86"/>
@@ -9927,14 +9938,14 @@
       <c r="M161" s="84"/>
       <c r="O161" s="86"/>
       <c r="P161" s="86" t="s">
+        <v>463</v>
+      </c>
+      <c r="Q161" s="86" t="s">
         <v>465</v>
-      </c>
-      <c r="Q161" s="86" t="s">
-        <v>467</v>
       </c>
       <c r="R161" s="86"/>
       <c r="S161" s="86" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="T161" s="86"/>
       <c r="U161" s="86"/>
@@ -9979,21 +9990,21 @@
       <c r="O162" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="P162" s="130" t="s">
+      <c r="P162" s="165" t="s">
         <v>389</v>
       </c>
-      <c r="Q162" s="131"/>
-      <c r="R162" s="131"/>
-      <c r="S162" s="132"/>
+      <c r="Q162" s="166"/>
+      <c r="R162" s="166"/>
+      <c r="S162" s="167"/>
       <c r="U162" s="109" t="s">
-        <v>458</v>
-      </c>
-      <c r="V162" s="134" t="s">
+        <v>457</v>
+      </c>
+      <c r="V162" s="168" t="s">
         <v>390</v>
       </c>
-      <c r="W162" s="135"/>
-      <c r="X162" s="135"/>
-      <c r="Y162" s="136"/>
+      <c r="W162" s="169"/>
+      <c r="X162" s="169"/>
+      <c r="Y162" s="170"/>
       <c r="Z162" s="113"/>
       <c r="AA162" s="113"/>
       <c r="AB162" s="113"/>
@@ -10306,22 +10317,22 @@
       <c r="A168" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="B168" s="137" t="s">
+      <c r="B168" s="159" t="s">
         <v>408</v>
       </c>
-      <c r="C168" s="138"/>
-      <c r="D168" s="138"/>
-      <c r="E168" s="138"/>
+      <c r="C168" s="160"/>
+      <c r="D168" s="160"/>
+      <c r="E168" s="160"/>
       <c r="F168" s="91"/>
       <c r="G168" s="92" t="s">
         <v>0</v>
       </c>
-      <c r="H168" s="139" t="s">
+      <c r="H168" s="171" t="s">
         <v>409</v>
       </c>
-      <c r="I168" s="139"/>
-      <c r="J168" s="139"/>
-      <c r="K168" s="139"/>
+      <c r="I168" s="171"/>
+      <c r="J168" s="171"/>
+      <c r="K168" s="171"/>
       <c r="L168" s="103"/>
       <c r="M168" s="103"/>
       <c r="O168" s="102">
@@ -10499,12 +10510,12 @@
       <c r="O172" s="105" t="s">
         <v>0</v>
       </c>
-      <c r="P172" s="140" t="s">
+      <c r="P172" s="172" t="s">
         <v>414</v>
       </c>
-      <c r="Q172" s="141"/>
-      <c r="R172" s="141"/>
-      <c r="S172" s="141"/>
+      <c r="Q172" s="173"/>
+      <c r="R172" s="173"/>
+      <c r="S172" s="173"/>
       <c r="T172" s="106"/>
       <c r="U172" s="105"/>
       <c r="V172" s="105"/>
@@ -10862,7 +10873,7 @@
         <v>10</v>
       </c>
       <c r="S180" s="119" t="s">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="T180" s="105"/>
       <c r="U180" s="105"/>
@@ -11057,12 +11068,12 @@
       <c r="A187" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B187" s="125" t="s">
+      <c r="B187" s="174" t="s">
         <v>425</v>
       </c>
-      <c r="C187" s="126"/>
-      <c r="D187" s="126"/>
-      <c r="E187" s="127"/>
+      <c r="C187" s="175"/>
+      <c r="D187" s="175"/>
+      <c r="E187" s="176"/>
       <c r="O187" s="7"/>
       <c r="P187" s="7"/>
       <c r="Q187" s="7"/>
@@ -11088,23 +11099,23 @@
       <c r="O188" s="107" t="s">
         <v>0</v>
       </c>
-      <c r="P188" s="128" t="s">
+      <c r="P188" s="163" t="s">
         <v>426</v>
       </c>
-      <c r="Q188" s="129"/>
-      <c r="R188" s="129"/>
-      <c r="S188" s="129"/>
+      <c r="Q188" s="164"/>
+      <c r="R188" s="164"/>
+      <c r="S188" s="164"/>
       <c r="T188" s="107"/>
       <c r="U188" s="107"/>
       <c r="V188" s="100" t="s">
         <v>0</v>
       </c>
-      <c r="W188" s="130" t="s">
+      <c r="W188" s="165" t="s">
         <v>427</v>
       </c>
-      <c r="X188" s="131"/>
-      <c r="Y188" s="131"/>
-      <c r="Z188" s="132"/>
+      <c r="X188" s="166"/>
+      <c r="Y188" s="166"/>
+      <c r="Z188" s="167"/>
     </row>
     <row r="189" spans="1:26">
       <c r="A189" s="16">
@@ -11368,12 +11379,12 @@
       <c r="A195" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="B195" s="133" t="s">
+      <c r="B195" s="136" t="s">
         <v>430</v>
       </c>
-      <c r="C195" s="133"/>
-      <c r="D195" s="133"/>
-      <c r="E195" s="133"/>
+      <c r="C195" s="136"/>
+      <c r="D195" s="136"/>
+      <c r="E195" s="136"/>
       <c r="F195" s="54"/>
       <c r="O195" s="50">
         <v>6</v>
@@ -11758,12 +11769,12 @@
       <c r="A213" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B213" s="121" t="s">
+      <c r="B213" s="137" t="s">
         <v>445</v>
       </c>
-      <c r="C213" s="122"/>
-      <c r="D213" s="122"/>
-      <c r="E213" s="123"/>
+      <c r="C213" s="138"/>
+      <c r="D213" s="138"/>
+      <c r="E213" s="139"/>
       <c r="F213" s="1"/>
     </row>
     <row r="214" spans="1:14">
@@ -11878,12 +11889,12 @@
       <c r="A222" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B222" s="121" t="s">
+      <c r="B222" s="137" t="s">
         <v>447</v>
       </c>
-      <c r="C222" s="122"/>
-      <c r="D222" s="122"/>
-      <c r="E222" s="123"/>
+      <c r="C222" s="138"/>
+      <c r="D222" s="138"/>
+      <c r="E222" s="139"/>
       <c r="F222" s="1"/>
     </row>
     <row r="223" spans="1:14">
@@ -11980,21 +11991,21 @@
       <c r="A230" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B230" s="124" t="s">
+      <c r="B230" s="122" t="s">
         <v>448</v>
       </c>
-      <c r="C230" s="124"/>
-      <c r="D230" s="124"/>
-      <c r="E230" s="124"/>
+      <c r="C230" s="122"/>
+      <c r="D230" s="122"/>
+      <c r="E230" s="122"/>
       <c r="G230" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="H230" s="121" t="s">
+      <c r="H230" s="137" t="s">
         <v>449</v>
       </c>
-      <c r="I230" s="122"/>
-      <c r="J230" s="122"/>
-      <c r="K230" s="123"/>
+      <c r="I230" s="138"/>
+      <c r="J230" s="138"/>
+      <c r="K230" s="139"/>
     </row>
     <row r="231" spans="1:11">
       <c r="A231" s="1" t="s">
@@ -12217,32 +12228,25 @@
     </row>
   </sheetData>
   <mergeCells count="53">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="N2:Q2"/>
-    <mergeCell ref="A11:K11"/>
-    <mergeCell ref="A16:K16"/>
-    <mergeCell ref="A20:K20"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="Q25:T25"/>
-    <mergeCell ref="Q32:T32"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="Q39:T39"/>
-    <mergeCell ref="Q46:T46"/>
-    <mergeCell ref="B53:E53"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="J58:O58"/>
-    <mergeCell ref="E63:F63"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="Q63:T63"/>
-    <mergeCell ref="Y69:AB69"/>
-    <mergeCell ref="K75:N75"/>
-    <mergeCell ref="B74:E74"/>
-    <mergeCell ref="R78:U78"/>
-    <mergeCell ref="J83:M83"/>
-    <mergeCell ref="U83:W83"/>
-    <mergeCell ref="B89:E89"/>
-    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="B213:E213"/>
+    <mergeCell ref="B222:E222"/>
+    <mergeCell ref="B230:E230"/>
+    <mergeCell ref="H230:K230"/>
+    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="P188:S188"/>
+    <mergeCell ref="W188:Z188"/>
+    <mergeCell ref="B195:E195"/>
+    <mergeCell ref="P162:S162"/>
+    <mergeCell ref="V162:Y162"/>
+    <mergeCell ref="B168:E168"/>
+    <mergeCell ref="H168:K168"/>
+    <mergeCell ref="P172:S172"/>
+    <mergeCell ref="J149:M149"/>
+    <mergeCell ref="B158:E158"/>
+    <mergeCell ref="H158:K158"/>
+    <mergeCell ref="J133:M133"/>
+    <mergeCell ref="P138:S138"/>
+    <mergeCell ref="B140:E140"/>
     <mergeCell ref="O119:R119"/>
     <mergeCell ref="P132:S132"/>
     <mergeCell ref="Y111:Z111"/>
@@ -12251,25 +12255,32 @@
     <mergeCell ref="O91:R91"/>
     <mergeCell ref="P105:S105"/>
     <mergeCell ref="V105:Y105"/>
-    <mergeCell ref="J149:M149"/>
-    <mergeCell ref="B158:E158"/>
-    <mergeCell ref="H158:K158"/>
-    <mergeCell ref="J133:M133"/>
-    <mergeCell ref="P138:S138"/>
-    <mergeCell ref="B140:E140"/>
-    <mergeCell ref="P188:S188"/>
-    <mergeCell ref="W188:Z188"/>
-    <mergeCell ref="B195:E195"/>
-    <mergeCell ref="P162:S162"/>
-    <mergeCell ref="V162:Y162"/>
-    <mergeCell ref="B168:E168"/>
-    <mergeCell ref="H168:K168"/>
-    <mergeCell ref="P172:S172"/>
-    <mergeCell ref="B213:E213"/>
-    <mergeCell ref="B222:E222"/>
-    <mergeCell ref="B230:E230"/>
-    <mergeCell ref="H230:K230"/>
-    <mergeCell ref="B187:E187"/>
+    <mergeCell ref="R78:U78"/>
+    <mergeCell ref="J83:M83"/>
+    <mergeCell ref="U83:W83"/>
+    <mergeCell ref="B89:E89"/>
+    <mergeCell ref="J89:M89"/>
+    <mergeCell ref="E63:F63"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="Q63:T63"/>
+    <mergeCell ref="Y69:AB69"/>
+    <mergeCell ref="K75:N75"/>
+    <mergeCell ref="B74:E74"/>
+    <mergeCell ref="Q39:T39"/>
+    <mergeCell ref="Q46:T46"/>
+    <mergeCell ref="B53:E53"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="J58:O58"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="Q25:T25"/>
+    <mergeCell ref="Q32:T32"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="N2:Q2"/>
+    <mergeCell ref="A11:K11"/>
+    <mergeCell ref="A16:K16"/>
+    <mergeCell ref="A20:K20"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
